--- a/data/final_egg_collections.xlsx
+++ b/data/final_egg_collections.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40c2179675f51a02/Amy Butler Research Project/Medfly-Development-Study/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="8_{035C0CD9-A8F3-4E0C-B927-62A83E05777E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BBF4A7C-0A77-4C3E-BAA6-E0DC2CAA14E5}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="8_{035C0CD9-A8F3-4E0C-B927-62A83E05777E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{009DD2B9-2A9D-4983-8CB5-4124AA75F5D0}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12165" xr2:uid="{545693A1-5DB4-4195-9AE1-8C1FFFFD77FA}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,9 +43,6 @@
     <t>longterm_diet</t>
   </si>
   <si>
-    <t>pupae_diet</t>
-  </si>
-  <si>
     <t>f2_pupation_date</t>
   </si>
   <si>
@@ -96,6 +92,9 @@
   </si>
   <si>
     <t>first_fly_in_cage_date</t>
+  </si>
+  <si>
+    <t>larval_diet</t>
   </si>
 </sst>
 </file>
@@ -450,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4EECF24-7A10-44D5-BE3E-89A7C96C5886}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,45 +470,45 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1">
         <v>44608</v>
@@ -541,13 +540,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1">
         <v>44608</v>
@@ -579,13 +578,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1">
         <v>44608</v>
@@ -594,7 +593,7 @@
         <v>44619</v>
       </c>
       <c r="F4" s="1">
-        <v>44627</v>
+        <v>44628</v>
       </c>
       <c r="G4" s="1">
         <v>44628</v>
@@ -617,13 +616,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1">
         <v>44608</v>
@@ -655,13 +654,13 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1">
         <v>44608</v>
@@ -693,13 +692,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1">
         <v>44608</v>
@@ -731,13 +730,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1">
         <v>44608</v>
@@ -769,13 +768,13 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1">
         <v>44608</v>
@@ -784,7 +783,7 @@
         <v>44619</v>
       </c>
       <c r="F9" s="1">
-        <v>44627</v>
+        <v>44628</v>
       </c>
       <c r="G9" s="1">
         <v>44628</v>
@@ -807,13 +806,13 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1">
         <v>44608</v>
@@ -845,13 +844,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="1">
         <v>44608</v>
@@ -883,13 +882,13 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1">
         <v>44608</v>
@@ -921,13 +920,13 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="1">
         <v>44609</v>
@@ -959,13 +958,13 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" s="1">
         <v>44609</v>
@@ -997,13 +996,13 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="1">
         <v>44609</v>
@@ -1035,13 +1034,13 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" s="1">
         <v>44609</v>
@@ -1073,13 +1072,13 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="1">
         <v>44609</v>
@@ -1111,13 +1110,13 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="1">
         <v>44609</v>
@@ -1149,13 +1148,13 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" s="1">
         <v>44609</v>
@@ -1187,13 +1186,13 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" s="1">
         <v>44609</v>
@@ -1225,13 +1224,13 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" s="1">
         <v>44609</v>
@@ -1263,13 +1262,13 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22" s="1">
         <v>44609</v>
@@ -1301,13 +1300,13 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" s="1">
         <v>44609</v>
@@ -1339,13 +1338,13 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" s="1">
         <v>44609</v>
@@ -1377,13 +1376,13 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25" s="1">
         <v>44610</v>
@@ -1415,13 +1414,13 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26" s="1">
         <v>44610</v>
@@ -1453,13 +1452,13 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27" s="1">
         <v>44610</v>
@@ -1491,13 +1490,13 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D28" s="1">
         <v>44610</v>
@@ -1529,13 +1528,13 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D29" s="1">
         <v>44610</v>
@@ -1567,13 +1566,13 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D30" s="1">
         <v>44610</v>
@@ -1605,13 +1604,13 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D31" s="1">
         <v>44610</v>
@@ -1643,13 +1642,13 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D32" s="1">
         <v>44610</v>
@@ -1681,13 +1680,13 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D33" s="1">
         <v>44610</v>
@@ -1719,13 +1718,13 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D34" s="1">
         <v>44610</v>
@@ -1757,13 +1756,13 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D35" s="1">
         <v>44610</v>
@@ -1795,13 +1794,13 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D36" s="1">
         <v>44610</v>
